--- a/audio/ja/方案四/飯店QA/飯店QA.xlsx
+++ b/audio/ja/方案四/飯店QA/飯店QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\ja\方案四\飯店QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844ABB13-3633-4D63-965A-CD36E6CDD1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71D241D-8E1F-4DF9-9F7B-C9523E3737AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t>問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,841 +506,841 @@
     <t>すみません、客室でいくつか問題がありまして、ご相談したいのですが。テレビとトイレが使えないようで、客室のWi‑Fiも電波が入らず、電動カーテンも故障しているようです。ご対応いただけますでしょうか。よろしくお願いします。</t>
   </si>
   <si>
+    <t>朝食は通常どこでお召し上がりになりますか？</t>
+  </si>
+  <si>
+    <t>朝食は何階で提供されていますか？時間は何時から何時までですか？食事エリアにはどのように入ればよいですか？</t>
+  </si>
+  <si>
+    <t>すみません、そちらで使える舞台はありますか？</t>
+  </si>
+  <si>
+    <t>会場のバンドで音響機材を用意していただけますか？ありがとうございます。</t>
+  </si>
+  <si>
+    <t>レストランでイベントを開催する際に参考になるガイドラインや歓迎用ポスターはありますか？</t>
+  </si>
+  <si>
+    <t>会議室には最大で何台のテーブルを置けますか？</t>
+  </si>
+  <si>
+    <t>会議室ではどのような種類の会議用テーブルが用意されていますか？</t>
+  </si>
+  <si>
+    <t>会議室にプロジェクターはありますか？私はMacを使っているのですが、接続できますか？</t>
+  </si>
+  <si>
+    <t>会議室は最大で何卓置けますか？</t>
+  </si>
+  <si>
+    <t>こちらのホテルに提携の駐車場はありますか？駐車の方法はどのようになっていますか？</t>
+  </si>
+  <si>
+    <t>すみません、駐車場の入口はどうやって行けばいいですか？</t>
+  </si>
+  <si>
+    <t>駐車の列ができている場合は、どうすればよいですか？</t>
+  </si>
+  <si>
+    <t>すみません、駐車場の精算機がずっと「まだ支払いが必要です」と表示されるのですが、これはどういうことでしょうか？</t>
+  </si>
+  <si>
+    <t>ホテルは高速鉄道や在来線の駅までの送迎を行っていますか？利用するにはどうすればよいですか？</t>
+  </si>
+  <si>
+    <t>すみません、ホテルの近くにYouBikeを借りられるところはありますか？また、原付を借りられる場所はありますか？</t>
+  </si>
+  <si>
+    <t>レストランに食事に行く際、車はどこに停めればよいでしょうか。近くに提携している駐車場はありますか？</t>
+  </si>
+  <si>
+    <t>すみません、南紡からレストランへはどう行けばいいですか？</t>
+  </si>
+  <si>
+    <t>すみません、ホテルから高速鉄道の駅までどう行けばいいですか？</t>
+  </si>
+  <si>
+    <t>ティーエス・モールへはどうやって行けばいいですか？</t>
+  </si>
+  <si>
+    <t>すみません、ここに喫煙所はありますか？</t>
+  </si>
+  <si>
+    <t>すみません、近くにコンビニはありますか？</t>
+  </si>
+  <si>
+    <t>すみません、いちばん近い夜市はどこですか？</t>
+  </si>
+  <si>
+    <t>すみません、ホテルの避難経路はどこにありますか？階段で5階のレストランに上がってもよろしいですか？</t>
+  </si>
+  <si>
+    <t>すみません、部屋の清掃状態があまり良くないようです。対応していただけますか？</t>
+  </si>
+  <si>
+    <t>客室に異臭がしたり清掃が行き届いていない場合、別の部屋に替えていただけますか？また、部屋が狭すぎる場合も別の部屋に替えていただけますか？ありがとうございます。</t>
+  </si>
+  <si>
+    <t>すみません、部屋でのインターネット接続はどうすればいいですか？</t>
+  </si>
+  <si>
+    <t>すみません、客室に少し異臭がするのに気づきました。対応していただけますでしょうか。ありがとうございます。</t>
+  </si>
+  <si>
+    <t>そちらではベビー用品をご提供していますか？たとえばベビーベッド、ベビーバス、ベッドガード、哺乳瓶用消毒器などはありますか？また、使い捨ての備品もご用意されていますか？よろしくお願いします。</t>
+  </si>
+  <si>
+    <t>備品は無料でいただけますか？</t>
+  </si>
+  <si>
+    <t>客室の清掃が十分でない場合、どなたにご連絡すればよろしいでしょうか？</t>
+  </si>
+  <si>
+    <t>すみません、客室にミネラルウォーターが用意されていないのですが、飲み水はどうすればよいでしょうか？</t>
+  </si>
+  <si>
+    <t>すみません、ミネラルウォーターを6本、お部屋までお持ちいただけますか？ありがとうございます。</t>
+  </si>
+  <si>
+    <t>館内にジムなどの施設はございますか？</t>
+  </si>
+  <si>
+    <t>お昼に早めにチェックインさせていただけますか？</t>
+  </si>
+  <si>
+    <t>もし早めに到着する場合、こちらに荷物を預けてもよろしいでしょうか？また、チェックアウトの際にも荷物を預けられますか？ありがとうございます。</t>
+  </si>
+  <si>
+    <t>チェックアウトを遅らせることはできますか？その場合、追加料金はどのくらいかかりますか？もしもう一泊したい場合、料金はおおよそいくらになりますか？</t>
+  </si>
+  <si>
+    <t>こんにちは。早めのチェックインや遅めのチェックインは可能でしょうか？また、チェックアウトの延長はできますか？料金の発生や支払い方法はどのようになっていますか？よろしくお願いします。</t>
+  </si>
+  <si>
+    <t>こちらでは休憩サービスを提供していますか？</t>
+  </si>
+  <si>
+    <t>1階の連絡通路の暗証番号を教えていただけますか？ありがとうございます。</t>
+  </si>
+  <si>
+    <t>チェックアウト後も駐車場に車を停めておいてもよろしいでしょうか？</t>
+  </si>
+  <si>
+    <t>すみません、ホテルのチェックアウトは何時ですか？</t>
+  </si>
+  <si>
+    <t>チェックアウトの時間を少し遅らせてもよろしいでしょうか？</t>
+  </si>
+  <si>
+    <t>台南老爺ホテルの一番お得な予約方法は何でしょうか？宿泊料金はだいたいどのくらいになりますか？</t>
+  </si>
+  <si>
+    <t>お世話になります。次の宿泊を予約したいのですが、宿泊の領収書を台湾の統一編號（事業者番号）で発行していただけますか？また、宿泊証明書が必要です。こちらの料金に朝食は含まれますか？よろしくお願いします。</t>
+  </si>
+  <si>
+    <t>期限切れの宿泊券はまだ使えますか？</t>
+  </si>
+  <si>
+    <t>期限切れの宿泊券はどのようにして宿泊料金の割引に使えますか？</t>
+  </si>
+  <si>
+    <t>部屋を予約する際に、高鐵（台湾高速鉄道）のチケットを一緒に追加で予約するにはどうすればいいですか？</t>
+  </si>
+  <si>
+    <t>予約時に高鐵の割引を追加で購入できますか？</t>
+  </si>
+  <si>
+    <t>平日のランチ券は休日にも使えますか？</t>
+  </si>
+  <si>
+    <t>すみません、私の食事券が期限切れになっていた場合、どうすれば使えますか？</t>
+  </si>
+  <si>
+    <t>ご高齢の方への特別な割引はございますか？また、誕生日の際にはどのような割引や特典がございますか？</t>
+  </si>
+  <si>
+    <t>特別な祝日の食事代はどのように計算されますか？</t>
+  </si>
+  <si>
+    <t>ランチとディナーの営業時間は何時ですか？</t>
+  </si>
+  <si>
+    <t>現場での食事代はどのように計算されますか？子どもは注文しなくてもよいですか？</t>
+  </si>
+  <si>
+    <t>食事券と割引はどのように使えばよいですか？</t>
+  </si>
+  <si>
+    <t>すみません、家族が一緒に朝食を食べられない場合、朝食をお持ち帰り用に包んでいただけますか？ありがとうございます。</t>
+  </si>
+  <si>
+    <t>メニューの参考を見せていただけますか？ありがとうございます！</t>
+  </si>
+  <si>
+    <t>誕生日向けの飲食割引や特典はありますか？</t>
+  </si>
+  <si>
+    <t>そちらの会員になるにはどうすればよいですか？</t>
+  </si>
+  <si>
+    <t>そちらのホテルの会員になるにはどうすればよいですか？会員はどのような特典を受けられますか？</t>
+  </si>
+  <si>
+    <t>誕生日の方を対象とした宿泊割引はございますか？</t>
+  </si>
+  <si>
+    <t>誕生日の方の飲食割引はありますか？</t>
+  </si>
+  <si>
+    <t>すみません、デリバリーを頼むのを手伝っていただけますか？地元の料理を試してみたいです。</t>
+  </si>
+  <si>
+    <t>ホテルでデリバリーの食事を受け取ってもらえますか？</t>
+  </si>
+  <si>
+    <t>そちらで荷物の発送や受け取りを手伝っていただけますか？</t>
+  </si>
+  <si>
+    <t>駐車場で渋滞に遭ったり駐車スペースが見つからない場合は、どうすればよいですか？</t>
+  </si>
+  <si>
+    <t>ホテルでタクシーを呼んでいただけますか？クレジットカードでの支払いは可能ですか？</t>
+  </si>
+  <si>
+    <t>ホテルの駐車方法はどのようになっていますか？チェックアウトの際に駐車料金を割引してもらえる時間はありますか？最遅で何時まで割引してもらえますか？</t>
+  </si>
+  <si>
+    <t>高速鉄道の駅や在来線の駅では、無料のシャトルバスはありますか？</t>
+  </si>
+  <si>
+    <t>すみません、ホテルの近くにコンビニはありますか？また、おすすめのグルメや屋台、観光スポットがあれば教えてください。ありがとうございます。</t>
+  </si>
+  <si>
+    <t>すみません、ここは市街地に近いですか？近くにおすすめの観光スポットやグルメはありますか？</t>
+  </si>
+  <si>
+    <t>老爺の近くで親子で食事ができるレストランや、親子で遊ぶのにおすすめのスポットはありますか？</t>
+  </si>
+  <si>
+    <t>ペットの宿泊は可能ですか？</t>
+  </si>
+  <si>
+    <t>こちらはペット連れでも大丈夫でしょうか？</t>
+  </si>
+  <si>
+    <t>この展覧会は一般に公開されていますか？</t>
+  </si>
+  <si>
+    <t>こちらで自転車のレンタルサービスはありますか？</t>
+  </si>
+  <si>
+    <t>ホテルで利用できる施設はどのようなものがありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。当ホテルでは、お客様が快適にお過ごしいただけるよう、軽めのジムや、洗濯機・乾燥機付きのコインランドリー、そしてユニークなデザインの雑貨店「甘情商號」などをご利用いただけます。また、当ホテルには「甘粹義式餐廳」や「廿一酒吧」、そして落ち着ける「回甘咖啡」もございます。さらに、120坪の広さを誇る展示スペースもご用意しております。ご滞在の際は、ぜひこれらの施設をご活用ください。</t>
+  </si>
+  <si>
+    <t>こちらにはサウナ・プール・キスルーム・ジムはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。サウナやプール、休息室、ジムにつきましては、館内には軽めのジムがございます。ジムは館内に位置しており、詳細な場所については当ホテルのフロントにてお尋ねください。ご希望に沿えるよう、ご案内させていただきますのでご安心ください。</t>
+  </si>
+  <si>
+    <t>すみません ここに電気自動車の充填スタートはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：南紡購物中心停車場に電動車充電樁がある可能性がありますが、数量は限られています。事前にホテルまたは駐車場管理所に確認されることをお勧めします（電話：+886-06-2366168）。</t>
+  </si>
+  <si>
+    <t>こちらにKTVや麻雀ができる場所はありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。こちらではKTVや麻雀ができる場所がございます。館内には軽めのジムがあり、その場所も櫃台でご確認ください。KTVについては、周辺の娯楽施設につきましては、櫃台でご案内させていただきますので、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>すみません ここにATMはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。申し訳ありませんが、当ホテルにはATMは設置されていません。しかし、南紡購物中心内にたくさんのATMがございまして、そちらでご利用いただけます。何か他にございましたら、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>ティラに洗濯設備はありますか? 例えば洗濯機や乾燥機などはありますか?</t>
+  </si>
+  <si>
+    <t>はい、ティラでは自助洗衣房をご利用いただけます。洗濯機と乾燥機が完備されており、ご使用方法につきましては、お気軽に櫃台までお尋ねください。</t>
+  </si>
+  <si>
+    <t>こちらで、ゆるいのクリーニングサービスはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。こちらでは、短時間の休憩サービスはございません。ただ、館内にコインランドリーがございます。洗濯機と乾燥機をご利用いただけます。使用方法につきましては、お気軽にフロントにてお尋ねください。</t>
+  </si>
+  <si>
+    <t>すみません こちらにビジネスセンターはありますが ビデオ会議を行うための小さなスペースが必要です</t>
+  </si>
+  <si>
+    <t>はいはい、こちらにビジネスセンターがございますが、ビデオ会議を行うための小スペースが必要とのことですね。承知いたしました。当方の会議室であれば、U型や教室型など、ご要望に合わせてテーブルの形を変えることができますので、お気軽にお申し付けください。何かご不明な点があれば、いつでもお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません ロービンにお手洗いはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、コンシェルジュです。ロビンのお手洗いの場所についてですね。はい、ロビンのお部屋には、全館を網羅する免治馬桶がございます。ぜひご活用ください。何か他にございましたら、お気軽にお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません チムと選択肢はどこにありますか? 使い方を教えていただけますか? あとウォーターサーバーの場所も教えてください ありがとうございます</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。チムと選択肢につきましては、ホテルの一階のロビーにおございます。使い方は、スタッフにお気軽にお尋ねください。ウォーターサーバーは各客室階に設置されておりますので、ご希望の階にご案内いたします。何かご不明な点がございましたら、いつでもお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>TSモール内のこう、営業店舗・海岸コーヒー・レストラン・バーを深むの営業時間は何ですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、TSモール内の店舗の営業時間は以下の通りです。海岸コーヒーは10:00-18:00、レストランは11:30-21:00、バーは18:00-24:00です。詳細についてはフロントにお問い合わせください。</t>
+  </si>
+  <si>
+    <t>すみません 南日本の連絡通路はどこにありますか?開放地…</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。南日本の連絡通路は一階にございます。開放時間につきましては、南紡の営業時間に同じで、ご不明な場合はお気軽にフロントまでお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません。カップ麺の自動販売機はどうやって使うんですか? それと、果実の商品はどうやって交流すればいいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 窄門咖啡館は1.8kmにあり、1991年創業のレトロな雰囲気のカフェで、特製のアイストラテは絶品です。榮興水果店は2.3kmで、70年の歴史を持つ老舗フルーツ店で、新鮮なフルーツとドリンクが楽しめます。果物の購入については、フロントまでお気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>お部屋に浴槽はありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 府城大水缸は6.5キロの距離にあり、桂花酸梅湯が有名です。新鮮な素材を使用し、長時間煮込むことで独特の風味があります。水缸豆花は、水缸で豆花を盛り付けるユニークなスタイルと、遺伝子組み換えでない黄豆を使用している点が特徴です。永記虱目魚丸は80年の歴史を持つ老舗で、新鮮な虱目魚を使った魚丸と肉燥飯が人気です。</t>
+  </si>
+  <si>
+    <t>すみません 部屋のベッドの上にあるあの黒い木質の土棚は何ですか</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。ベッドの上にある黒い木製の棚ですね、それはお客様の荷物や小物を置かれるための収納スペースなんです。ベッドの上でちょっとしたものを置いておきたい時に便利にご利用いただけますよ。何か他に気になることなどございましたら、お気軽にお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>すみませんが、枕が硬すぎたり柔らかすぎたりしたら交換していただけますか?</t>
+  </si>
+  <si>
+    <t>はいはい、承知いたしました。枕が硬すぎたり柔らかすぎたりしたら、お客様のご希望に合わせて、別の枕にご変更させていただきます。遠慮なくお申し付けくださいませ。</t>
+  </si>
+  <si>
+    <t>こちらに温水船長便座はありますか?</t>
+  </si>
+  <si>
+    <t>はい、こちらに温水船長便座がございます。当館の老爺套房や品味套房にご用意しております。ご希望でしたら、そちらをご利用いただけます。</t>
+  </si>
+  <si>
+    <t>こちらの場所は外に面白した的がありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。はい、こちらのロイヤルトラベラーには、大きな窓から外の景色を眺められる客室がご用意がございます。また、一部の展示室も外に面しており、そちらもご覧いただけます。周辺には、台南の街並みや美味しいグルメも楽しめますので、ごゆっくりお過ごしください。何かご質問があれば、いつでもお気軽にお声かけください。</t>
+  </si>
+  <si>
+    <t>下室のテレビでネットフリックス・ディスニーブラス・アイキゲなど ストーリーウィンクサービスは視聴できますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：下室のテレビでNetflixなどの動画配信サービスが利用できるかというお問い合わせですね。現在、一部の客室タイプでは対応しており、ご宿泊前にフロントにてご確認いただけますと幸いです。また、テレビやその他の設備に問題がある場合は、すぐにフロントまでご連絡ください。</t>
+  </si>
+  <si>
+    <t>すみません 私のルームキーがエレベーターで使えず 部屋にも入れません どういうことでしょうか</t>
+  </si>
+  <si>
+    <t>はいはい、お客様、大変申し訳ございません。ルームキーがエレベーターや部屋の入室に使えないとのこと、ご不便をおかけして申し訳ございません。すぐにフロントにご連絡いただければ、状況を確認してすぐに対応させていただきますので、ご安心ください。何かご不明な点があれば、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かご用件でしょうか。申し訳ございませんが、ファミリールームにはペットを添乗されることはできません。只今、案内犬につきましては受け付けておりますので、そちらをご利用ください。</t>
+  </si>
+  <si>
+    <t>朝食は通常どこでお召し上がりになりますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお手伝いできるでしょうか。朝食は通常、当館の5階にある「甘粹餐廳」でご提供しております。AM6:30からAM10:00まで、西式と素食をご希望に応じてお召し上がりいただけます。</t>
+  </si>
+  <si>
+    <t>朝食は何回で抵抗されていますか? 時間は何時から何時までですか? 食事エリアはどのように入ればよいですか?</t>
+  </si>
+  <si>
+    <t>おはようございます、どうぞご用件をお伺いします。朝食は5階の「甘粹餐廳」で、06:30から10:00までご提供しております。用餐区へは、5階からお入りください。何かご不明な点がございましたら、お気軽にお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません そちらで使える舞台はありますか</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。そちらで使える舞台についてですね、会議や宴会廳では臨時の舞台を設けております。事前にご予約いただければ、すぐにでもご利用いただけます。詳細なご希望や人数など、お気軽にお申し付けくださいませ。</t>
+  </si>
+  <si>
+    <t>会長のバンドで音響機材を用意していただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>はい、承知いたしました。会長様のお楽団の音響機材についてですね、喜んでご用意できます。事前にご予約いただければ、必要な機材を準備いたしますので、お気軽にお申し付けください。何かご不明な点があれば、いつでもお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>レストランでイベントを開催する際に参考になるガイド欄や歓迎用のポスターはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：福隆餐館は北門区にあり、新鮮な海鮮料理を提供しており、特に平價季節餐點で知られています。距離は約37.3kmです。虱目魚主題館は安平にあり、虱目魚をテーマにしたレストランで、距離は約6.3kmです。吉品現宰牛肉清湯は3.9kmの距離にあり、薬膳スープと牛肉料理が有名です。イベント開催時にガイド欄やポスターが必要な場合は、フロントにお問い合わせください。</t>
+  </si>
+  <si>
+    <t>会議室には最大で何体のテーブルを置けますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かご用件はございますでしょうか。会議室には最大で120人様まで、テーブルを配置可能です。ご希望の人数に合わせて、U型や教室型など、様々なテーブル配置をご提案できますので、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>会議室ではどのような種類の会議用テーブルが用意されていますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。会議室では、お客様のご要望に合わせてU型、教室型、劇院型など、様々な種類の会議用テーブルをご用意しております。また、テーブルの形状も柔軟に変更可能ですので、お気軽にご相談ください。何かご不明な点があれば、喜んでお手伝いさせていただきます。</t>
+  </si>
+  <si>
+    <t>会議室にプロジェクトはありますか? 私はマックを使っているようですが 結束できますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かご用件でしょうか。会議室にプロジェクトがあるかどうか、またMacをご利用とのことですが、接続についてですね。当ホテルでは様々な会議室をご用意しており、Macをご利用になられる場合は、接続設定についてもサポートさせていただきますので、お気軽にお申し付けください。詳細なご希望をお聞かせいただければ、最適な会議室をご提案いたします。</t>
+  </si>
+  <si>
+    <t>室は最大抵何パク置けますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。甘粹會議室は、活動の規模に合わせて柔軟にテーブルの数を調整できます。最大で120人様までお席をご用意できますので、ご安心ください。詳細なご希望や人数などございましたら、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>こちらのホテルに定型の受写場はありますか?受写の方法はどのようになっていますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。はい、弊ホテルには標準的な受写場がございます。南紡購物中心と共有している地下駐車場をご利用いただけます。また、事前にフロントにてご相談いただければ、荷物を受け取りサービスの取り扱いについてもご案内できますので、お気軽にお申し付けくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません 助車長の入り口はどうやって行けばいいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。助車長の入り口につきましては、まず5階にご上がりいただき、そちらのロビーで「助車長」とご案内いただければ、スムーズにご案内差し上げます。もしご不明な点がございましたら、お気軽にお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>写真の列ができている場合はどうすればよいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。写真の列ができているとのこと、大変ご不便をおかけして申し訳ございません。停車場が混み合っている場合、お客様のご希望に添うまで少しお待ちいただくことになります。もしご不快な思いをされているようでしたら、フロントにお声かけください。スタッフが状況を確認し、可能な限りご対応させていただきますので、ご安心ください。</t>
+  </si>
+  <si>
+    <t>すみません 助社長の計算機はずっと また支払いが必要です と表示されるのですが これはどういうことでしょうか</t>
+  </si>
+  <si>
+    <t>はいはい、お客様、ご不便をおかけして申し訳ございません。おっしゃるように、お部屋の計算機が「また支払いが必要です」と表示されるとのことですが、これは通常、お部屋の利用料金が滞納している場合に表示されるメッセージなんです。恐れ入りますが、お部屋の料金は全てお支払い済みでしょうか？もしそうであれば、機械の故障の可能性がございますので、すぐにフロントまでご連絡いただけますでしょうか。フロントでは、機械の点検や修理、またはお客様へのご案内など、迅速に対応させていただきますので、ご安心ください。</t>
+  </si>
+  <si>
+    <t>ホテルは高速鉄道や再来線の駅までの総営を言ってますか? 利用できるはどうすればよいのですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。ホテルで高速鉄道や再来線の駅までの送迎サービスがあるかとのことですね。申し訳ございません、現時点では送迎車はございません。しかし、快捷公車（高速バス）やタクシーをご利用になることをお勧めいたします。快捷公車は高鐵快捷公車駅や再来線駅まで約20分で到着します。また、タクシーをご利用になる場合は、ホテルでタクシーを呼んでいただくことも可能です。タクシー料金は、各車行によって異なる場合がございますので、事前にご確認くださいね。何かご不明な点がございましたら、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>すみません ホテルの近くにUバイクを借りられるところはありますか? また原付きを借りられる場所はありますか?</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。ホテルの近くにはYouBikeの貸し出しステーションがあり、数件のバイクショップもございます。YouBikeは、南紡ショッピングセンターまでお散歩されるのもおすすめです。また、バイクのレンタルも可能ですので、ご希望に合わせてご案内いたします。何かご不明な点があれば、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>レストランに食事に行くとき車はどこに止めればよいんでしょうか?自宅に提携している助車帳はありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお手伝いできるでしょうか。レストランへ食事に行かれる際、お車でお越しになるのですね。そちらの件ですが、南紡購物中心の駐車場をご利用いただけます。こちらの駐車場は、レストランと提携しており、消費金額を提示することで割引もご利用いただけますので、ぜひお試しください。</t>
+  </si>
+  <si>
+    <t>すみません 南方からレストランへはどこ行けばいいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：卓仔麵店は500メートル、西羅殿牛肉湯は1000メートル、黄家蝦捲は1000メートルです。卓仔麵店は毎日手作りの麺で有名で、紅焼牛肉麺と榨菜麺が人気です。西羅殿牛肉湯は米其林推薦の老舗で、新鮮な温州牛肉と自家製辣椒が絶品です。黄家蝦捲は50年の伝統で、酥脆な蝦捲と魚丸脆肉湯が人気です。</t>
+  </si>
+  <si>
+    <t>すみません ホテルから高層鉄道の駅まで どう行けばいいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。このホテルから高層鉄道の駅へは、タクシーに乗られるのが一番スムーズです。車で約9分ほどで到着します。もし公共交通機関をご利用になりたい場合は、赤い1号線か6号線に乗って台南火車站まで行き、そこから区間車に乗り換えて沙崙火車站まで行くルートもあります。どちらにご興味がありますか？</t>
+  </si>
+  <si>
+    <t>TSモールへはどうやって行けばいいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。TSモールへは、一階の連絡門から徒歩圏内ですので、お気軽にご利用ください。もし道に迷われましたら、お気軽にお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません ここに 喫煙症はありますか?</t>
+  </si>
+  <si>
+    <t>はい、こちらに喫煙専用の屋外喫煙所がございます。ご不便をおかけしますが、そちらでどうぞ。</t>
+  </si>
+  <si>
+    <t>すみません 近くにコンビニはありますか?</t>
+  </si>
+  <si>
+    <t>はいはい、こちらでしたね、お尋ねください。はい、もちろんです。こちらのホテル周辺には、南紡購物中心内に便利商店がありますし、周辺にもいくつかございますよ。何か特定の場所でお探しでしたら、詳しくお教えいたしますので、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>すみません 一番近いヨイチはどこですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお手伝いできるでしょうか。最近の漁港についてですね。近くには武聖夜市や東門夜市があり、車で10～15分ほどの距離にあります。また、南紡購物中心周辺にも漁港があるようですので、そちらも合わせてご確認ください。</t>
+  </si>
+  <si>
+    <t>すみません ホテルの閉駄行動はどこにありますか? 階段で5階のレストランにあがってもよろしいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。サービスカウンターはホテルのロビーにございます。エレベーターで5階のレストランへ上がっても大丈夫です。お気軽にご利用ください。何か他にございましたら、いつでもお声かけください。</t>
+  </si>
+  <si>
+    <t>すみません 部屋の窃装状態があまり良くないようです 対応していただけますか</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。お部屋の状況が良くないとのこと、大変申し訳ございません。すぐにフロントにご連絡いただければ、状況を詳しくお伺いし、クリーニングの強化や、ご希望に沿ったお部屋への変更など、できる限りの対応をさせていただきますので、ご安心ください。何かご不明な点があれば、いつでもお気軽にお声かけください。</t>
+  </si>
+  <si>
+    <t>家室に異臭がしたり清掃が行き届けていない場合 別の部屋に帰っていただけますか? また部屋が狭すぎる場合も別の部屋に帰っていただけますか?</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。もしお部屋に異臭がしていたり、清掃が行き届いていなかったりする場合は、こちらで別の部屋へ変更させていただきます。また、お部屋が小さくてお困りの場合は、こちらも別の部屋へ変更可能ですので、お気軽にお申し付けください。フロントまでご連絡いただければ、すぐに対応させていただきます。</t>
+  </si>
+  <si>
+    <t>すみません 部屋でのインターネット 下足はどうすればいいですか</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。ご宿泊の部屋でインターネットをご利用になりたいとのことですね。当ホテルでは全館に無料のWi-Fiをご利用いただけます。Wi-Fiのパスワードはフロントにてお気軽にお申し付けください。ご不明な点がございましたら、いつでもお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません 過失に少しイシュガースするの気づきました 対応していただけますでしょうか ありがとうございます</t>
+  </si>
+  <si>
+    <t>はい、承知いたしました。お客様、ご不便をおかけして申し訳ございません。過失について、何かご対応が必要でしたら、お気軽にお申し付けください。台南ロイヤルトラベラーでは、お客様に快適なご滞在をお約束できるよう、精一杯サポートさせていただきます。何かございましたら、フロントまでお声かけいただければ、すぐに対応いたしますのでご安心ください。</t>
+  </si>
+  <si>
+    <t>そちらへではベイビー用品をご提供していますが 例えばベイビーペット・ベイビーバス・ベイビーカット・ 哺乳品用消毒品</t>
+  </si>
+  <si>
+    <t>はい、そちらへはベビー用品をご用意しております。例えば、ベビーペットやベビーバス、ベビーカット、そして哺乳品用の消毒液などもございます。これらの商品もご希望でしたら、事前にお電話でご予約いただければ、こちらでご用意できますので、お気軽にお申し付けくださいませ。</t>
+  </si>
+  <si>
+    <t>備品は無料でいただけますか?</t>
+  </si>
+  <si>
+    <t>はい、備品は基本的に無料でご用意できます。ただし、ベビーベッドや澡盆、消毒鍋などの特殊なものは、数量に限りがございますので、事前にご予約いただきますようお願いいたします。何かご不明な点がございましたら、お気軽に館内のご案内カウンターまでお声かけくださいませ。</t>
+  </si>
+  <si>
+    <t>カシツの清掃が自分でない場合、どなたにご連絡すればよろしいでしょうか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。カシツの清掃について、ご自身で対応できない場合は、お手数ですがフロントにてご相談ください。フロントの方が適切な対応をとって差し支えありません。何かご不明な点があれば、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>すみません。 過湿にミネラルウォーターが用意されていないのですか? 飲み水はどうすればよいでしょうか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 毎日の水は瓶入りをご用意しております。飲水機は各階にございますので、そちらをご利用ください。また、フロントまでお気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>すみません ミネラルウォーターを6本 お部屋までお持ちいただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>はいはい、承知いたしました。ミネラルウォーター6本ですね、かしこまりました。すぐにベルマンにお申し付けになって、お部屋までお届けいたしますので、少々お待ちください。ありがとうございます。</t>
+  </si>
+  <si>
+    <t>チムナとの施設はございますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。チムナとの関連施設につきましては、館内には無料のジムがございます。また、周辺には様々な飲食店や観光スポットもございますので、ご希望に応じて詳細な情報をご案内することも可能です。何かご質問はございませんか？</t>
+  </si>
+  <si>
+    <t>お昼に早めにチェックインされていただけますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。お昼の時間帯で、お早めにチェックインをご希望とのことですね。状況によってはお早めにチェックインできる場合と、そうでない場合があるのですが、当日はどのような状況かフロントにてご確認ください。状況によっては追加料金が発生する可能性もございますので、お気軽にお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>もし早めに到着する場合 こちらに荷物を預けてもよろしいでしょうか?また チェックアウトの際にも 荷物を預かれますか?</t>
+  </si>
+  <si>
+    <t>はいはい、承知いたしました。早めに到着された場合、こちらで荷物を預かって差し上げることができますよ。また、チェックアウトの際にも、荷物を預かって差し上げることが可能です。ぜひご安心ください。何かご不明な点があれば、いつでもお気軽にお声かけくださいね。</t>
+  </si>
+  <si>
+    <t>チェックアウトを遅らせることはできますか?その場合、税価料金はどのくらいかかりますか?もしもう1泊したい</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。チェックアウトを遅らせることは可能です。ただし、その場合、房況によって追加料金が発生いたします。通常、延泊の際には当日の宿泊料金に準ずる費用がかかりますので、ご希望の時間をフロントにてお伺いいたします。もしもう1泊したいというご希望もございましたら、こちらもご対応させていただきますので、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>では、早めのチェックインや遅めのチェックアウトは可能でしょうか? また、チェックアウトの援助はできますか? 料金の発生や支払い方法は…</t>
+  </si>
+  <si>
+    <t>はい、承知いたしました。早めのチェックインや遅めのチェックアウトにつきましては、お部屋の状況によって柔軟に対応させていただきます。もし、チェックアウトの時間を延長していただきたい場合も、お気軽にお声かけください。料金につきましては、お部屋の状況や延長時間によって加料金が発生いたします。支払い方法につきましては、通常、お部屋の請求額をお支払いいただくか、クレジットカードでの決済が可能です。ご不明な点がございましたら、いつでもお申し付けくださいませ。</t>
+  </si>
+  <si>
+    <t>こちらでは休憩サービスを抵抗していますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。こちらでは休憩サービスをご用意しておりませんが、南紡購物中心の下にある駐車場をご利用いただけます。また、YouBikeの利用もご検討ください。何か他に気になることがございましたら、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>1階の連絡通路の暗証番号を教えていただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。1階の連絡通路の暗証番号についてですが、お手数ですがフロントにお問い合わせいただけますでしょうか。フロントには暗証番号をお知らせいただく際に必要な手続きをご案内いただけますので、そちらをご利用ください。ありがとうございます。</t>
+  </si>
+  <si>
+    <t>チェックアウト後も 駐車場に車を止めておいてもよろしいでしょうか</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。当館では、南紡購物中心地下駐車場と共有しており、宿泊のお客様は無料でご利用いただけます。チェックアウト後も、停車場に車を停めていただくことは可能です。ただし、延長された場合は、フロントにてお声かけいただくようお願いいたします。</t>
+  </si>
+  <si>
+    <t>すみません ホテルのチャックアウトは何時ですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。台南ロイヤルトラベラーでは、午前11:00までにご退房いただければ問題ございません。もし、ご希望の時間に合わせてご退房をご希望でしたら、フロントにてお気軽にお申し付けください。何かご不明な点がございましたら、いつでもお尋ねください。</t>
+  </si>
+  <si>
+    <t>スクアウトの時間を少し遅らせてもよろしいでしょうか</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。スクアウトの時間をお持ちの時間を少しでも遅らせたいとのことですね。かしこまりました。当日の状況によりますので、フロントにご相談いただければ、可能な範囲で対応させていただきます。何かご不明な点があれば、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。お子様を連れて宿泊される場合ですね、追加料金につきましては、5歳未満のお子様は無料で宿泊できます。5歳以上のお子様につきましては、通常、人数に応じて追加料金が発生いたします。詳細な料金につきましては、お部屋タイプや人数によって変わってきますので、ご希望の宿泊プランや人数をお教えいただければ、正確な金額をお伝えできます。ご不明な点がございましたら、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>タイナンローヤ・ホテルの一番お得な予約方法は何でしょうか?宿泊料金は大体どのくらいになりますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。台南老爺行旅の予約ですね。一番お得な方法は、弊社の公式サイトから直接予約されるのがおすすめです。通常、双人部屋で3,000円台から宿泊料金が設定されていますが、時期や空室状況によって変動いたしますので、ご希望の日程をお知らせいただければ、正確な料金をお調べいたします。ご不明な点がございましたら、お気軽にお申し付けくださいませ。</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 浴槽は、品味スイートと老爺スイートに設置されています。 どちらも加湿機能付きです。 ご不明な点があれば、フロントにお問い合わせください。</t>
+  </si>
+  <si>
+    <t>お世話になります。次の食博を予約したいのですが、食博の列車を台湾の統一変更、授業所番号で発祥して…</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 卓仔麵店は500メートルほどで、毎日手作りの麺を毎日提供しており、紅焼牛肉麺や榨菜麺が人気です。西羅殿牛肉湯は1000メートルほどで、米其林推薦の老舗店で、新鮮な台湾温体牛肉と自家製辣椒が絶品です。黄家蝦捲は1キロほどで、50年の歴史を持つ定番台南小吃店で、酥脆な蝦捲と魚丸脆肉湯が人気です。</t>
+  </si>
+  <si>
+    <t>実験キレイの食博券はまた使えますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：実験キレイの食博券は、券の規定によりますので、お店に直接お問い合わせください。</t>
+  </si>
+  <si>
+    <t>アン・キリの食博券はどのようにして 食博料金に割引に使いますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。アン・キリの食博券の割引についてですね。食博券の利用方法につきましては、券に記載されている規定をご確認いただくか、直接レストランにご確認ください。詳細については、お店のスタッフにお尋ねになるとのことです。何か他にございましたら、お気軽にお声かけください。</t>
+  </si>
+  <si>
+    <t>カーを予約する際に 豪鉄・台湾高速鉄道のチケットを 一緒に追加で予約するには どうすればいいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。ご予約の際に、台湾高速鉄道のチケットを一緒に予約したいとのことですね。一部のプラットフォームでは提携があり、ご予約の際にご確認ください。もしご不明な点がございましたら、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>予約時に鋼鉄の割引を追加できる購入できますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。予約時に鉄の割引を追加できる購入についてですね。一部のプラットフォームと提携がありまして、ご予約の際にご確認ください。もしご不明な点がございましたら、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>平日のランチ券は休日にも使えますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：卓仔麵店は500メートルほどで、毎日手作りの麺が有名です。紅焼牛肉麺や榨菜麺が人気で、とても美味しいですよ。西羅殿牛肉湯は1000メートルほどで、米其林推薦の老舗店です。新鮮な台湾温体牛肉と自家製辣椒が絶品です。上海華都小吃は1.1キロで、小炒や小籠包が美味しいお店です。もし休日でもランチ券を使いたい場合は、券の規定を確認して、お店に直接お問い合わせください。</t>
+  </si>
+  <si>
+    <t>すみません 私の食事券が事件切れになっていた場合 どうすれば使えますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。お食事券が期限切れとのこと、ご心配ですね。券の表面に記載されている規定をご確認いただき、その旨をレストランのスタッフの方に直接お伝えいただければ、対応していただくことができます。何かご不明な点があれば、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>ご高齢の方への特別な割引はございますか?また、誕生日の際にはどのような割引や特典がございますか?</t>
+  </si>
+  <si>
+    <t>はい、承知いたしました。ご高齢の方には特別な割引がございます。また、お誕生日には様々な割引や特典をご用意しております。詳細につきましては、ぜひ弊店のウェブサイトをご覧いただくか、お電話にてお問い合わせくださいませ。ご希望に沿えるよう、最大限お力尽くさせていただきますので、お気軽にご相談ください。</t>
+  </si>
+  <si>
+    <t>特別な週日の食事代はどのように計算されますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです何かお手伝いできますか？特別な週日の食事代につきましては、通常はウェブサイトで掲載されている情報を参照いただくか、直接レストランにお問い合わせいただくと、詳細な料金体系をお知らせいただけます。ご不明な点がございましたら、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>カンチン・ド・ディーナの営業時間は何時ですか?カンチン・ド・ディーナの営業時間は何時ですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。カンチン・ド・ディーナは、朝の6時30分から10時まで、そして11時30分から14時まで、さらに18時からの夕食まで、営業しております。何か他に気になることや、ご質問などございましたら、お気軽にお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>現状での食事代はどのように計算されますか? 子供は注文したくてもよいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお困りのことでしょうか。現在の食事代の計算についてですが、お子様に関しては、5歳未満のお子様は注文は不要で、無料でご提供しております。5歳以上のお子様につきましては、大人と同じメニューからお選びいただくことになります。詳細については、レストランにてお尋ねください。</t>
+  </si>
+  <si>
+    <t>食事券と割引はどのように使えば良いですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。食事券と割引券につきましては、券面をご確認いただくか、念のためレストランのカウンターでご質問いただければ、詳細なご案内を承ることが可能です。何かご不明な点があれば、お気軽にお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>すみません 家族と一緒に 消食を食べられない場合 消食をお持ち帰るように包んでいただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>はいはい、承知いたしました。もしご家族で召し上がらない消食をご持ち帰りなさりたい場合でしたら、もちろんお包みにしてお届けいたします。事前にお申し付けくださいまして、準備させていただきます。どうぞよろしくお願いいたします。</t>
+  </si>
+  <si>
+    <t>メニューの参考を見せていただけますか? ありがとうございます。</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：水缸豆花（約2.5km）は、独特の水缸装盛方式と純手工製作の豆花で有名です。非基因黃豆と金字塔能量水を使用しており、健康美味です。豆漿豆花、波霸豆花、紅豆豆漿豆花がおすすめです。寶芝林燻茶鵝（約2.7km）は、蜂蜜汁燻茶鵝が絶品です。そして、轉角餐廳 Corner Steak House（約3.2km）は、高品質の碳烤牛排で知られています。メニューの参考は官網と現場でご確認ください。</t>
+  </si>
+  <si>
+    <t>誕生日向けの飲食割引や特典はありますか?</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。誕生日のお祝いに合わせた飲食の割引や特典はございます。詳細については、お近くのレストランにお問い合わせいただくか、レストランの公式ウェブサイトをご確認ください。ご希望のプランやメニューに合わせて、最適なご提案をさせていただきますので、お気軽にお声かけください。</t>
+  </si>
+  <si>
+    <t>ミラの会員になるにはどうすればよいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。ミラの会員になるには、まずオンラインでご登録になります。ご登録いただくと、特別なご優待やポイントが貯まる特典、そしてお誕生日には素敵なご礼物もご用意しておりますので、ぜひオンラインでご登録ください。ご不明な点がございましたら、お気軽にフロントにお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>そちらのホテルの会員になるにはどうすればよいですか?会員はどのような特典を受けられますか?</t>
+  </si>
+  <si>
+    <t>はい、そちらのホテルにご入会をご希望とのことですね。会員ご登録は、弊ホテル公式サイトからオンラインで簡単に行えます。会員様限定の特別なご特典もご用意しております。ポイントが貯まるシステムになっており、誕生月には素敵なご礼物もご用意、また、会員様限定のセール情報なども随時配信いたしますので、ぜひご登録ください。ご登録方法や特典の詳細につきましては、公式サイトをご確認いただくか、お気軽にフロントまでお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>誕生日の方を対象とした宿泊割引はございますか?</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。誕生日の方を対象とした宿泊割引がございます。レストランやウェブサイトで詳細をご確認ください。何かご不明な点がございましたら、お気軽にお尋ねくださいませ。</t>
+  </si>
+  <si>
+    <t>金曜日の方の飲食割引はありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。金曜日ですね、はい、ございます。当店のウェブサイトやお電話で、詳細な内容をお調べいただけます。ご希望に応じて、スタッフが詳しくご案内いたしますので、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>すみません デリバリーを頼むのを手伝っていただけますか? 地元の料理を試してみたいです</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。はい、承知いたしました。デリバリーのご手配ですね。台南の美味しい地元の料理を試してみたいとのこと、素晴らしいですね。南紡購物中心内には、様々な飲食店がありますので、そちらで地元の料理を試してみてはいかがでしょうか。もしご希望の料理があれば、お店の方に直接ご相談されるとスムーズです。何かご不明な点があれば、いつでもお気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>ホテルでデリバリーの食事を受け取ってもらえますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：街役場古蹟餐坊は1.2kmにあり、歴史ある建物で蜜檸柚香燒豬肋排が人気です。咖啡部屋は4.4kmで、義大利肉醬麵がおすすめです。阿財牛肉湯は6.7kmで、新鮮な温体牛肉湯が人気です。</t>
+  </si>
+  <si>
+    <t>そちらへ荷物の発送や受け取りを手伝っていただけますか?</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。荷物の発送や受け取りにつきましては、弊ホテルのお手荷物預かり所へお越しいただければ、喜んで対応させていただきます。お気軽にご利用くださいませ。</t>
+  </si>
+  <si>
+    <t>車丁で渋滞にあったり、駐車スペースが見つからない場合は、どうすればよいですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。もし、お車でご来館の際に、渋滞で駐車場が見つからない場合や、駐車スペースが空いていない場合は、お手数ですが当ホテルのフロントまで直接ご連絡ください。フロントスタッフが、空いている駐車場をご案内したり、臨時でご案内可能な駐車場をご案内したりと、できる限りサポートさせていただきますので、お気軽にお声かけください。</t>
+  </si>
+  <si>
+    <t>ホテルでタクシーを呼んでいただけますか? クレジットカートでの支払いは可能ですか? 可能ですか?</t>
+  </si>
+  <si>
+    <t>はい、もちろんです。タクシーの手配も承りできます。クレジットカードでの支払いは、お店によって対応が異なるようですので、一度お櫃に確認を取って差し上げますよ。</t>
+  </si>
+  <si>
+    <t>ホテルの駐車方法はどのようになっていますか? チェックアウトの際に駐車料金を割引してもらえる時間はありますか?最終的に…</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。ホテルでは、南紡ショッピングセンターの地下駐車場をご利用いただけます。駐車料金につきましては、館内での消費金額が1,000元以上でしたら、1時間まで割引とさせていただいております。最大で6時間まで、同じ車検証に応じて割引可能です。退房後の駐車料金の延長につきましては、駐車場が空いている状況によって、フロントにて柔軟に対応させていただきますので、お気軽にお声かけください。</t>
+  </si>
+  <si>
+    <t>高速鉄道の駅や再来線の駅では無料のシャトルバースはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。高速鉄道の駅や再来線の駅では、無料のシャトルバスはございません。高鉄快捷公車やタクシーをご利用いただくことをお勧めいたします。何か他に気になることやご質問がございましたら、お気軽にお申し付けください。</t>
+  </si>
+  <si>
+    <t>すみません ホテルの近くにコンビニはありますか? またおすすめのグルメや屋台・観光スポットがあれば教えてください ありがとうございます</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：ホテル近くには南紡購物中心内にコンビニエンスストアがあります。周辺には台南市柳營區農會田媽媽（約52.6km）の鮮奶饅頭や包子、新化~東成醬油會館（約7.9km）の翡翠海鮮餅などがおすすめです。また、蓮圃園蓮產品DIY觀光工廠（約3.6km）では、蓮子を使った手作り体験も楽しめます。</t>
+  </si>
+  <si>
+    <t>すみません ここは四海市に近いますか 近くにおすすめの観光スポットやクルメはありますか</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：四海市から約6.8キロの距離に「林家肉圓」があります。こちらは百年以上の歴史を持つ老舗で、Q弾とした肉圓と四神湯が人気です。また、保安路米糕は約3.9キロで、地元で愛される老字號です。さらに、烏山咖啡は2.6キロで、烏山獼猴区の景色を眺めながら、美味しいコーヒーや火鍋を楽しめます。もし他に気になるお店があれば、フロントまでお気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>牢屋の近くで親で食事ができるレストランや親で遊ぶのにおすすめのスポットはありますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 卓仔麵店は500メートルほどで、毎日手作りの麺が有名です。紅焼牛肉麺や榨菜麺が人気で、とても美味しいです。西羅殿牛肉湯は1000メートルほどで、米其林推薦の老舗店です。黄家蝦捲は1キロほどで、美味しい蝦捲が評判です。もし他に何かご希望があれば、フロントにお問い合わせください。</t>
+  </si>
+  <si>
+    <t>ペットの宿泊は可能ですか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。申し訳ありませんが、当ホテルではペットの宿泊は承りかねます。ご迷惑をおかけして申し訳ございません。</t>
+  </si>
+  <si>
+    <t>ペットを連れても大丈夫でしょうか?</t>
+  </si>
+  <si>
+    <t>こんにちは、どうぞご用件をお伺いします。申し訳ありませんが、当ホテルではペットの宿泊は承りかねます。しかし、視覚障碍をお持ちのお客様には、盲導犬のご同伴であればお迎えできます。何かご不明な点がございましたら、お気軽にお尋ねください。</t>
+  </si>
+  <si>
+    <t>この天皇会は一般に公開されていますか?</t>
+  </si>
+  <si>
+    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：皇室茶会は一般公開ではありません。詳細についてはフロントにお問い合わせください。</t>
+  </si>
+  <si>
+    <t>こちらで自転車のレンタルサービスはありますか?</t>
+  </si>
+  <si>
+    <t>はい、こちらでは自転車のレンタルサービスがございます。YouBikeのステーションが近くにありますので、そちらをご利用ください。</t>
+  </si>
+  <si>
     <t>ファミリールームにエキストラベッドを追加できますか？</t>
-  </si>
-  <si>
-    <t>朝食は通常どこでお召し上がりになりますか？</t>
-  </si>
-  <si>
-    <t>朝食は何階で提供されていますか？時間は何時から何時までですか？食事エリアにはどのように入ればよいですか？</t>
-  </si>
-  <si>
-    <t>すみません、そちらで使える舞台はありますか？</t>
-  </si>
-  <si>
-    <t>会場のバンドで音響機材を用意していただけますか？ありがとうございます。</t>
-  </si>
-  <si>
-    <t>レストランでイベントを開催する際に参考になるガイドラインや歓迎用ポスターはありますか？</t>
-  </si>
-  <si>
-    <t>会議室には最大で何台のテーブルを置けますか？</t>
-  </si>
-  <si>
-    <t>会議室ではどのような種類の会議用テーブルが用意されていますか？</t>
-  </si>
-  <si>
-    <t>会議室にプロジェクターはありますか？私はMacを使っているのですが、接続できますか？</t>
-  </si>
-  <si>
-    <t>会議室は最大で何卓置けますか？</t>
-  </si>
-  <si>
-    <t>こちらのホテルに提携の駐車場はありますか？駐車の方法はどのようになっていますか？</t>
-  </si>
-  <si>
-    <t>すみません、駐車場の入口はどうやって行けばいいですか？</t>
-  </si>
-  <si>
-    <t>駐車の列ができている場合は、どうすればよいですか？</t>
-  </si>
-  <si>
-    <t>すみません、駐車場の精算機がずっと「まだ支払いが必要です」と表示されるのですが、これはどういうことでしょうか？</t>
-  </si>
-  <si>
-    <t>ホテルは高速鉄道や在来線の駅までの送迎を行っていますか？利用するにはどうすればよいですか？</t>
-  </si>
-  <si>
-    <t>すみません、ホテルの近くにYouBikeを借りられるところはありますか？また、原付を借りられる場所はありますか？</t>
-  </si>
-  <si>
-    <t>レストランに食事に行く際、車はどこに停めればよいでしょうか。近くに提携している駐車場はありますか？</t>
-  </si>
-  <si>
-    <t>すみません、南紡からレストランへはどう行けばいいですか？</t>
-  </si>
-  <si>
-    <t>すみません、ホテルから高速鉄道の駅までどう行けばいいですか？</t>
-  </si>
-  <si>
-    <t>ティーエス・モールへはどうやって行けばいいですか？</t>
-  </si>
-  <si>
-    <t>すみません、ここに喫煙所はありますか？</t>
-  </si>
-  <si>
-    <t>すみません、近くにコンビニはありますか？</t>
-  </si>
-  <si>
-    <t>すみません、いちばん近い夜市はどこですか？</t>
-  </si>
-  <si>
-    <t>すみません、ホテルの避難経路はどこにありますか？階段で5階のレストランに上がってもよろしいですか？</t>
-  </si>
-  <si>
-    <t>すみません、部屋の清掃状態があまり良くないようです。対応していただけますか？</t>
-  </si>
-  <si>
-    <t>客室に異臭がしたり清掃が行き届いていない場合、別の部屋に替えていただけますか？また、部屋が狭すぎる場合も別の部屋に替えていただけますか？ありがとうございます。</t>
-  </si>
-  <si>
-    <t>すみません、部屋でのインターネット接続はどうすればいいですか？</t>
-  </si>
-  <si>
-    <t>すみません、客室に少し異臭がするのに気づきました。対応していただけますでしょうか。ありがとうございます。</t>
-  </si>
-  <si>
-    <t>そちらではベビー用品をご提供していますか？たとえばベビーベッド、ベビーバス、ベッドガード、哺乳瓶用消毒器などはありますか？また、使い捨ての備品もご用意されていますか？よろしくお願いします。</t>
-  </si>
-  <si>
-    <t>備品は無料でいただけますか？</t>
-  </si>
-  <si>
-    <t>客室の清掃が十分でない場合、どなたにご連絡すればよろしいでしょうか？</t>
-  </si>
-  <si>
-    <t>すみません、客室にミネラルウォーターが用意されていないのですが、飲み水はどうすればよいでしょうか？</t>
-  </si>
-  <si>
-    <t>すみません、ミネラルウォーターを6本、お部屋までお持ちいただけますか？ありがとうございます。</t>
-  </si>
-  <si>
-    <t>館内にジムなどの施設はございますか？</t>
-  </si>
-  <si>
-    <t>お昼に早めにチェックインさせていただけますか？</t>
-  </si>
-  <si>
-    <t>もし早めに到着する場合、こちらに荷物を預けてもよろしいでしょうか？また、チェックアウトの際にも荷物を預けられますか？ありがとうございます。</t>
-  </si>
-  <si>
-    <t>チェックアウトを遅らせることはできますか？その場合、追加料金はどのくらいかかりますか？もしもう一泊したい場合、料金はおおよそいくらになりますか？</t>
-  </si>
-  <si>
-    <t>こんにちは。早めのチェックインや遅めのチェックインは可能でしょうか？また、チェックアウトの延長はできますか？料金の発生や支払い方法はどのようになっていますか？よろしくお願いします。</t>
-  </si>
-  <si>
-    <t>こちらでは休憩サービスを提供していますか？</t>
-  </si>
-  <si>
-    <t>1階の連絡通路の暗証番号を教えていただけますか？ありがとうございます。</t>
-  </si>
-  <si>
-    <t>チェックアウト後も駐車場に車を停めておいてもよろしいでしょうか？</t>
-  </si>
-  <si>
-    <t>すみません、ホテルのチェックアウトは何時ですか？</t>
-  </si>
-  <si>
-    <t>チェックアウトの時間を少し遅らせてもよろしいでしょうか？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ファミリルームにエキストランペットを追加できますか?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お子様を連れて宿泊する場合、追加料金はかかりますか?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>お子様を連れて宿泊する場合、追加料金はかかりますか？</t>
-  </si>
-  <si>
-    <t>台南老爺ホテルの一番お得な予約方法は何でしょうか？宿泊料金はだいたいどのくらいになりますか？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どの加湿タイプに浴槽がついていますか?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>どの客室タイプに浴槽が付いていますか？</t>
-  </si>
-  <si>
-    <t>お世話になります。次の宿泊を予約したいのですが、宿泊の領収書を台湾の統一編號（事業者番号）で発行していただけますか？また、宿泊証明書が必要です。こちらの料金に朝食は含まれますか？よろしくお願いします。</t>
-  </si>
-  <si>
-    <t>期限切れの宿泊券はまだ使えますか？</t>
-  </si>
-  <si>
-    <t>期限切れの宿泊券はどのようにして宿泊料金の割引に使えますか？</t>
-  </si>
-  <si>
-    <t>部屋を予約する際に、高鐵（台湾高速鉄道）のチケットを一緒に追加で予約するにはどうすればいいですか？</t>
-  </si>
-  <si>
-    <t>予約時に高鐵の割引を追加で購入できますか？</t>
-  </si>
-  <si>
-    <t>平日のランチ券は休日にも使えますか？</t>
-  </si>
-  <si>
-    <t>すみません、私の食事券が期限切れになっていた場合、どうすれば使えますか？</t>
-  </si>
-  <si>
-    <t>ご高齢の方への特別な割引はございますか？また、誕生日の際にはどのような割引や特典がございますか？</t>
-  </si>
-  <si>
-    <t>特別な祝日の食事代はどのように計算されますか？</t>
-  </si>
-  <si>
-    <t>ランチとディナーの営業時間は何時ですか？</t>
-  </si>
-  <si>
-    <t>現場での食事代はどのように計算されますか？子どもは注文しなくてもよいですか？</t>
-  </si>
-  <si>
-    <t>食事券と割引はどのように使えばよいですか？</t>
-  </si>
-  <si>
-    <t>すみません、家族が一緒に朝食を食べられない場合、朝食をお持ち帰り用に包んでいただけますか？ありがとうございます。</t>
-  </si>
-  <si>
-    <t>メニューの参考を見せていただけますか？ありがとうございます！</t>
-  </si>
-  <si>
-    <t>誕生日向けの飲食割引や特典はありますか？</t>
-  </si>
-  <si>
-    <t>そちらの会員になるにはどうすればよいですか？</t>
-  </si>
-  <si>
-    <t>そちらのホテルの会員になるにはどうすればよいですか？会員はどのような特典を受けられますか？</t>
-  </si>
-  <si>
-    <t>誕生日の方を対象とした宿泊割引はございますか？</t>
-  </si>
-  <si>
-    <t>誕生日の方の飲食割引はありますか？</t>
-  </si>
-  <si>
-    <t>すみません、デリバリーを頼むのを手伝っていただけますか？地元の料理を試してみたいです。</t>
-  </si>
-  <si>
-    <t>ホテルでデリバリーの食事を受け取ってもらえますか？</t>
-  </si>
-  <si>
-    <t>そちらで荷物の発送や受け取りを手伝っていただけますか？</t>
-  </si>
-  <si>
-    <t>駐車場で渋滞に遭ったり駐車スペースが見つからない場合は、どうすればよいですか？</t>
-  </si>
-  <si>
-    <t>ホテルでタクシーを呼んでいただけますか？クレジットカードでの支払いは可能ですか？</t>
-  </si>
-  <si>
-    <t>ホテルの駐車方法はどのようになっていますか？チェックアウトの際に駐車料金を割引してもらえる時間はありますか？最遅で何時まで割引してもらえますか？</t>
-  </si>
-  <si>
-    <t>高速鉄道の駅や在来線の駅では、無料のシャトルバスはありますか？</t>
-  </si>
-  <si>
-    <t>すみません、ホテルの近くにコンビニはありますか？また、おすすめのグルメや屋台、観光スポットがあれば教えてください。ありがとうございます。</t>
-  </si>
-  <si>
-    <t>すみません、ここは市街地に近いですか？近くにおすすめの観光スポットやグルメはありますか？</t>
-  </si>
-  <si>
-    <t>老爺の近くで親子で食事ができるレストランや、親子で遊ぶのにおすすめのスポットはありますか？</t>
-  </si>
-  <si>
-    <t>ペットの宿泊は可能ですか？</t>
-  </si>
-  <si>
-    <t>こちらはペット連れでも大丈夫でしょうか？</t>
-  </si>
-  <si>
-    <t>この展覧会は一般に公開されていますか？</t>
-  </si>
-  <si>
-    <t>こちらで自転車のレンタルサービスはありますか？</t>
-  </si>
-  <si>
-    <t>ホテルで利用できる施設はどのようなものがありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。当ホテルでは、お客様が快適にお過ごしいただけるよう、軽めのジムや、洗濯機・乾燥機付きのコインランドリー、そしてユニークなデザインの雑貨店「甘情商號」などをご利用いただけます。また、当ホテルには「甘粹義式餐廳」や「廿一酒吧」、そして落ち着ける「回甘咖啡」もございます。さらに、120坪の広さを誇る展示スペースもご用意しております。ご滞在の際は、ぜひこれらの施設をご活用ください。</t>
-  </si>
-  <si>
-    <t>こちらにはサウナ・プール・キスルーム・ジムはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。サウナやプール、休息室、ジムにつきましては、館内には軽めのジムがございます。ジムは館内に位置しており、詳細な場所については当ホテルのフロントにてお尋ねください。ご希望に沿えるよう、ご案内させていただきますのでご安心ください。</t>
-  </si>
-  <si>
-    <t>すみません ここに電気自動車の充填スタートはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：南紡購物中心停車場に電動車充電樁がある可能性がありますが、数量は限られています。事前にホテルまたは駐車場管理所に確認されることをお勧めします（電話：+886-06-2366168）。</t>
-  </si>
-  <si>
-    <t>こちらにKTVや麻雀ができる場所はありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。こちらではKTVや麻雀ができる場所がございます。館内には軽めのジムがあり、その場所も櫃台でご確認ください。KTVについては、周辺の娯楽施設につきましては、櫃台でご案内させていただきますので、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>すみません ここにATMはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。申し訳ありませんが、当ホテルにはATMは設置されていません。しかし、南紡購物中心内にたくさんのATMがございまして、そちらでご利用いただけます。何か他にございましたら、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>ティラに洗濯設備はありますか? 例えば洗濯機や乾燥機などはありますか?</t>
-  </si>
-  <si>
-    <t>はい、ティラでは自助洗衣房をご利用いただけます。洗濯機と乾燥機が完備されており、ご使用方法につきましては、お気軽に櫃台までお尋ねください。</t>
-  </si>
-  <si>
-    <t>こちらで、ゆるいのクリーニングサービスはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。こちらでは、短時間の休憩サービスはございません。ただ、館内にコインランドリーがございます。洗濯機と乾燥機をご利用いただけます。使用方法につきましては、お気軽にフロントにてお尋ねください。</t>
-  </si>
-  <si>
-    <t>すみません こちらにビジネスセンターはありますが ビデオ会議を行うための小さなスペースが必要です</t>
-  </si>
-  <si>
-    <t>はいはい、こちらにビジネスセンターがございますが、ビデオ会議を行うための小スペースが必要とのことですね。承知いたしました。当方の会議室であれば、U型や教室型など、ご要望に合わせてテーブルの形を変えることができますので、お気軽にお申し付けください。何かご不明な点があれば、いつでもお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません ロービンにお手洗いはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、コンシェルジュです。ロビンのお手洗いの場所についてですね。はい、ロビンのお部屋には、全館を網羅する免治馬桶がございます。ぜひご活用ください。何か他にございましたら、お気軽にお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません チムと選択肢はどこにありますか? 使い方を教えていただけますか? あとウォーターサーバーの場所も教えてください ありがとうございます</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。チムと選択肢につきましては、ホテルの一階のロビーにおございます。使い方は、スタッフにお気軽にお尋ねください。ウォーターサーバーは各客室階に設置されておりますので、ご希望の階にご案内いたします。何かご不明な点がございましたら、いつでもお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>TSモール内のこう、営業店舗・海岸コーヒー・レストラン・バーを深むの営業時間は何ですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、TSモール内の店舗の営業時間は以下の通りです。海岸コーヒーは10:00-18:00、レストランは11:30-21:00、バーは18:00-24:00です。詳細についてはフロントにお問い合わせください。</t>
-  </si>
-  <si>
-    <t>すみません 南日本の連絡通路はどこにありますか?開放地…</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。南日本の連絡通路は一階にございます。開放時間につきましては、南紡の営業時間に同じで、ご不明な場合はお気軽にフロントまでお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません。カップ麺の自動販売機はどうやって使うんですか? それと、果実の商品はどうやって交流すればいいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 窄門咖啡館は1.8kmにあり、1991年創業のレトロな雰囲気のカフェで、特製のアイストラテは絶品です。榮興水果店は2.3kmで、70年の歴史を持つ老舗フルーツ店で、新鮮なフルーツとドリンクが楽しめます。果物の購入については、フロントまでお気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>お部屋に浴槽はありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 府城大水缸は6.5キロの距離にあり、桂花酸梅湯が有名です。新鮮な素材を使用し、長時間煮込むことで独特の風味があります。水缸豆花は、水缸で豆花を盛り付けるユニークなスタイルと、遺伝子組み換えでない黄豆を使用している点が特徴です。永記虱目魚丸は80年の歴史を持つ老舗で、新鮮な虱目魚を使った魚丸と肉燥飯が人気です。</t>
-  </si>
-  <si>
-    <t>すみません 部屋のベッドの上にあるあの黒い木質の土棚は何ですか</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。ベッドの上にある黒い木製の棚ですね、それはお客様の荷物や小物を置かれるための収納スペースなんです。ベッドの上でちょっとしたものを置いておきたい時に便利にご利用いただけますよ。何か他に気になることなどございましたら、お気軽にお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>すみませんが、枕が硬すぎたり柔らかすぎたりしたら交換していただけますか?</t>
-  </si>
-  <si>
-    <t>はいはい、承知いたしました。枕が硬すぎたり柔らかすぎたりしたら、お客様のご希望に合わせて、別の枕にご変更させていただきます。遠慮なくお申し付けくださいませ。</t>
-  </si>
-  <si>
-    <t>こちらに温水船長便座はありますか?</t>
-  </si>
-  <si>
-    <t>はい、こちらに温水船長便座がございます。当館の老爺套房や品味套房にご用意しております。ご希望でしたら、そちらをご利用いただけます。</t>
-  </si>
-  <si>
-    <t>こちらの場所は外に面白した的がありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。はい、こちらのロイヤルトラベラーには、大きな窓から外の景色を眺められる客室がご用意がございます。また、一部の展示室も外に面しており、そちらもご覧いただけます。周辺には、台南の街並みや美味しいグルメも楽しめますので、ごゆっくりお過ごしください。何かご質問があれば、いつでもお気軽にお声かけください。</t>
-  </si>
-  <si>
-    <t>下室のテレビでネットフリックス・ディスニーブラス・アイキゲなど ストーリーウィンクサービスは視聴できますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：下室のテレビでNetflixなどの動画配信サービスが利用できるかというお問い合わせですね。現在、一部の客室タイプでは対応しており、ご宿泊前にフロントにてご確認いただけますと幸いです。また、テレビやその他の設備に問題がある場合は、すぐにフロントまでご連絡ください。</t>
-  </si>
-  <si>
-    <t>すみません 私のルームキーがエレベーターで使えず 部屋にも入れません どういうことでしょうか</t>
-  </si>
-  <si>
-    <t>はいはい、お客様、大変申し訳ございません。ルームキーがエレベーターや部屋の入室に使えないとのこと、ご不便をおかけして申し訳ございません。すぐにフロントにご連絡いただければ、状況を確認してすぐに対応させていただきますので、ご安心ください。何かご不明な点があれば、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>ファミリルームにエキストランペットを追加できますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かご用件でしょうか。申し訳ございませんが、ファミリールームにはペットを添乗されることはできません。只今、案内犬につきましては受け付けておりますので、そちらをご利用ください。</t>
-  </si>
-  <si>
-    <t>朝食は通常どこでお召し上がりになりますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお手伝いできるでしょうか。朝食は通常、当館の5階にある「甘粹餐廳」でご提供しております。AM6:30からAM10:00まで、西式と素食をご希望に応じてお召し上がりいただけます。</t>
-  </si>
-  <si>
-    <t>朝食は何回で抵抗されていますか? 時間は何時から何時までですか? 食事エリアはどのように入ればよいですか?</t>
-  </si>
-  <si>
-    <t>おはようございます、どうぞご用件をお伺いします。朝食は5階の「甘粹餐廳」で、06:30から10:00までご提供しております。用餐区へは、5階からお入りください。何かご不明な点がございましたら、お気軽にお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません そちらで使える舞台はありますか</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。そちらで使える舞台についてですね、会議や宴会廳では臨時の舞台を設けております。事前にご予約いただければ、すぐにでもご利用いただけます。詳細なご希望や人数など、お気軽にお申し付けくださいませ。</t>
-  </si>
-  <si>
-    <t>会長のバンドで音響機材を用意していただけますか ありがとうございます</t>
-  </si>
-  <si>
-    <t>はい、承知いたしました。会長様のお楽団の音響機材についてですね、喜んでご用意できます。事前にご予約いただければ、必要な機材を準備いたしますので、お気軽にお申し付けください。何かご不明な点があれば、いつでもお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>レストランでイベントを開催する際に参考になるガイド欄や歓迎用のポスターはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：福隆餐館は北門区にあり、新鮮な海鮮料理を提供しており、特に平價季節餐點で知られています。距離は約37.3kmです。虱目魚主題館は安平にあり、虱目魚をテーマにしたレストランで、距離は約6.3kmです。吉品現宰牛肉清湯は3.9kmの距離にあり、薬膳スープと牛肉料理が有名です。イベント開催時にガイド欄やポスターが必要な場合は、フロントにお問い合わせください。</t>
-  </si>
-  <si>
-    <t>会議室には最大で何体のテーブルを置けますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かご用件はございますでしょうか。会議室には最大で120人様まで、テーブルを配置可能です。ご希望の人数に合わせて、U型や教室型など、様々なテーブル配置をご提案できますので、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>会議室ではどのような種類の会議用テーブルが用意されていますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。会議室では、お客様のご要望に合わせてU型、教室型、劇院型など、様々な種類の会議用テーブルをご用意しております。また、テーブルの形状も柔軟に変更可能ですので、お気軽にご相談ください。何かご不明な点があれば、喜んでお手伝いさせていただきます。</t>
-  </si>
-  <si>
-    <t>会議室にプロジェクトはありますか? 私はマックを使っているようですが 結束できますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かご用件でしょうか。会議室にプロジェクトがあるかどうか、またMacをご利用とのことですが、接続についてですね。当ホテルでは様々な会議室をご用意しており、Macをご利用になられる場合は、接続設定についてもサポートさせていただきますので、お気軽にお申し付けください。詳細なご希望をお聞かせいただければ、最適な会議室をご提案いたします。</t>
-  </si>
-  <si>
-    <t>室は最大抵何パク置けますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。甘粹會議室は、活動の規模に合わせて柔軟にテーブルの数を調整できます。最大で120人様までお席をご用意できますので、ご安心ください。詳細なご希望や人数などございましたら、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>こちらのホテルに定型の受写場はありますか?受写の方法はどのようになっていますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。はい、弊ホテルには標準的な受写場がございます。南紡購物中心と共有している地下駐車場をご利用いただけます。また、事前にフロントにてご相談いただければ、荷物を受け取りサービスの取り扱いについてもご案内できますので、お気軽にお申し付けくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません 助車長の入り口はどうやって行けばいいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。助車長の入り口につきましては、まず5階にご上がりいただき、そちらのロビーで「助車長」とご案内いただければ、スムーズにご案内差し上げます。もしご不明な点がございましたら、お気軽にお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>写真の列ができている場合はどうすればよいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。写真の列ができているとのこと、大変ご不便をおかけして申し訳ございません。停車場が混み合っている場合、お客様のご希望に添うまで少しお待ちいただくことになります。もしご不快な思いをされているようでしたら、フロントにお声かけください。スタッフが状況を確認し、可能な限りご対応させていただきますので、ご安心ください。</t>
-  </si>
-  <si>
-    <t>すみません 助社長の計算機はずっと また支払いが必要です と表示されるのですが これはどういうことでしょうか</t>
-  </si>
-  <si>
-    <t>はいはい、お客様、ご不便をおかけして申し訳ございません。おっしゃるように、お部屋の計算機が「また支払いが必要です」と表示されるとのことですが、これは通常、お部屋の利用料金が滞納している場合に表示されるメッセージなんです。恐れ入りますが、お部屋の料金は全てお支払い済みでしょうか？もしそうであれば、機械の故障の可能性がございますので、すぐにフロントまでご連絡いただけますでしょうか。フロントでは、機械の点検や修理、またはお客様へのご案内など、迅速に対応させていただきますので、ご安心ください。</t>
-  </si>
-  <si>
-    <t>ホテルは高速鉄道や再来線の駅までの総営を言ってますか? 利用できるはどうすればよいのですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。ホテルで高速鉄道や再来線の駅までの送迎サービスがあるかとのことですね。申し訳ございません、現時点では送迎車はございません。しかし、快捷公車（高速バス）やタクシーをご利用になることをお勧めいたします。快捷公車は高鐵快捷公車駅や再来線駅まで約20分で到着します。また、タクシーをご利用になる場合は、ホテルでタクシーを呼んでいただくことも可能です。タクシー料金は、各車行によって異なる場合がございますので、事前にご確認くださいね。何かご不明な点がございましたら、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>すみません ホテルの近くにUバイクを借りられるところはありますか? また原付きを借りられる場所はありますか?</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。ホテルの近くにはYouBikeの貸し出しステーションがあり、数件のバイクショップもございます。YouBikeは、南紡ショッピングセンターまでお散歩されるのもおすすめです。また、バイクのレンタルも可能ですので、ご希望に合わせてご案内いたします。何かご不明な点があれば、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>レストランに食事に行くとき車はどこに止めればよいんでしょうか?自宅に提携している助車帳はありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお手伝いできるでしょうか。レストランへ食事に行かれる際、お車でお越しになるのですね。そちらの件ですが、南紡購物中心の駐車場をご利用いただけます。こちらの駐車場は、レストランと提携しており、消費金額を提示することで割引もご利用いただけますので、ぜひお試しください。</t>
-  </si>
-  <si>
-    <t>すみません 南方からレストランへはどこ行けばいいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：卓仔麵店は500メートル、西羅殿牛肉湯は1000メートル、黄家蝦捲は1000メートルです。卓仔麵店は毎日手作りの麺で有名で、紅焼牛肉麺と榨菜麺が人気です。西羅殿牛肉湯は米其林推薦の老舗で、新鮮な温州牛肉と自家製辣椒が絶品です。黄家蝦捲は50年の伝統で、酥脆な蝦捲と魚丸脆肉湯が人気です。</t>
-  </si>
-  <si>
-    <t>すみません ホテルから高層鉄道の駅まで どう行けばいいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。このホテルから高層鉄道の駅へは、タクシーに乗られるのが一番スムーズです。車で約9分ほどで到着します。もし公共交通機関をご利用になりたい場合は、赤い1号線か6号線に乗って台南火車站まで行き、そこから区間車に乗り換えて沙崙火車站まで行くルートもあります。どちらにご興味がありますか？</t>
-  </si>
-  <si>
-    <t>TSモールへはどうやって行けばいいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。TSモールへは、一階の連絡門から徒歩圏内ですので、お気軽にご利用ください。もし道に迷われましたら、お気軽にお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません ここに 喫煙症はありますか?</t>
-  </si>
-  <si>
-    <t>はい、こちらに喫煙専用の屋外喫煙所がございます。ご不便をおかけしますが、そちらでどうぞ。</t>
-  </si>
-  <si>
-    <t>すみません 近くにコンビニはありますか?</t>
-  </si>
-  <si>
-    <t>はいはい、こちらでしたね、お尋ねください。はい、もちろんです。こちらのホテル周辺には、南紡購物中心内に便利商店がありますし、周辺にもいくつかございますよ。何か特定の場所でお探しでしたら、詳しくお教えいたしますので、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>すみません 一番近いヨイチはどこですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお手伝いできるでしょうか。最近の漁港についてですね。近くには武聖夜市や東門夜市があり、車で10～15分ほどの距離にあります。また、南紡購物中心周辺にも漁港があるようですので、そちらも合わせてご確認ください。</t>
-  </si>
-  <si>
-    <t>すみません ホテルの閉駄行動はどこにありますか? 階段で5階のレストランにあがってもよろしいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。サービスカウンターはホテルのロビーにございます。エレベーターで5階のレストランへ上がっても大丈夫です。お気軽にご利用ください。何か他にございましたら、いつでもお声かけください。</t>
-  </si>
-  <si>
-    <t>すみません 部屋の窃装状態があまり良くないようです 対応していただけますか</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。お部屋の状況が良くないとのこと、大変申し訳ございません。すぐにフロントにご連絡いただければ、状況を詳しくお伺いし、クリーニングの強化や、ご希望に沿ったお部屋への変更など、できる限りの対応をさせていただきますので、ご安心ください。何かご不明な点があれば、いつでもお気軽にお声かけください。</t>
-  </si>
-  <si>
-    <t>家室に異臭がしたり清掃が行き届けていない場合 別の部屋に帰っていただけますか? また部屋が狭すぎる場合も別の部屋に帰っていただけますか?</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。もしお部屋に異臭がしていたり、清掃が行き届いていなかったりする場合は、こちらで別の部屋へ変更させていただきます。また、お部屋が小さくてお困りの場合は、こちらも別の部屋へ変更可能ですので、お気軽にお申し付けください。フロントまでご連絡いただければ、すぐに対応させていただきます。</t>
-  </si>
-  <si>
-    <t>すみません 部屋でのインターネット 下足はどうすればいいですか</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。ご宿泊の部屋でインターネットをご利用になりたいとのことですね。当ホテルでは全館に無料のWi-Fiをご利用いただけます。Wi-Fiのパスワードはフロントにてお気軽にお申し付けください。ご不明な点がございましたら、いつでもお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません 過失に少しイシュガースするの気づきました 対応していただけますでしょうか ありがとうございます</t>
-  </si>
-  <si>
-    <t>はい、承知いたしました。お客様、ご不便をおかけして申し訳ございません。過失について、何かご対応が必要でしたら、お気軽にお申し付けください。台南ロイヤルトラベラーでは、お客様に快適なご滞在をお約束できるよう、精一杯サポートさせていただきます。何かございましたら、フロントまでお声かけいただければ、すぐに対応いたしますのでご安心ください。</t>
-  </si>
-  <si>
-    <t>そちらへではベイビー用品をご提供していますが 例えばベイビーペット・ベイビーバス・ベイビーカット・ 哺乳品用消毒品</t>
-  </si>
-  <si>
-    <t>はい、そちらへはベビー用品をご用意しております。例えば、ベビーペットやベビーバス、ベビーカット、そして哺乳品用の消毒液などもございます。これらの商品もご希望でしたら、事前にお電話でご予約いただければ、こちらでご用意できますので、お気軽にお申し付けくださいませ。</t>
-  </si>
-  <si>
-    <t>備品は無料でいただけますか?</t>
-  </si>
-  <si>
-    <t>はい、備品は基本的に無料でご用意できます。ただし、ベビーベッドや澡盆、消毒鍋などの特殊なものは、数量に限りがございますので、事前にご予約いただきますようお願いいたします。何かご不明な点がございましたら、お気軽に館内のご案内カウンターまでお声かけくださいませ。</t>
-  </si>
-  <si>
-    <t>カシツの清掃が自分でない場合、どなたにご連絡すればよろしいでしょうか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。カシツの清掃について、ご自身で対応できない場合は、お手数ですがフロントにてご相談ください。フロントの方が適切な対応をとって差し支えありません。何かご不明な点があれば、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>すみません。 過湿にミネラルウォーターが用意されていないのですか? 飲み水はどうすればよいでしょうか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 毎日の水は瓶入りをご用意しております。飲水機は各階にございますので、そちらをご利用ください。また、フロントまでお気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>すみません ミネラルウォーターを6本 お部屋までお持ちいただけますか ありがとうございます</t>
-  </si>
-  <si>
-    <t>はいはい、承知いたしました。ミネラルウォーター6本ですね、かしこまりました。すぐにベルマンにお申し付けになって、お部屋までお届けいたしますので、少々お待ちください。ありがとうございます。</t>
-  </si>
-  <si>
-    <t>チムナとの施設はございますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。チムナとの関連施設につきましては、館内には無料のジムがございます。また、周辺には様々な飲食店や観光スポットもございますので、ご希望に応じて詳細な情報をご案内することも可能です。何かご質問はございませんか？</t>
-  </si>
-  <si>
-    <t>お昼に早めにチェックインされていただけますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。お昼の時間帯で、お早めにチェックインをご希望とのことですね。状況によってはお早めにチェックインできる場合と、そうでない場合があるのですが、当日はどのような状況かフロントにてご確認ください。状況によっては追加料金が発生する可能性もございますので、お気軽にお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>もし早めに到着する場合 こちらに荷物を預けてもよろしいでしょうか?また チェックアウトの際にも 荷物を預かれますか?</t>
-  </si>
-  <si>
-    <t>はいはい、承知いたしました。早めに到着された場合、こちらで荷物を預かって差し上げることができますよ。また、チェックアウトの際にも、荷物を預かって差し上げることが可能です。ぜひご安心ください。何かご不明な点があれば、いつでもお気軽にお声かけくださいね。</t>
-  </si>
-  <si>
-    <t>チェックアウトを遅らせることはできますか?その場合、税価料金はどのくらいかかりますか?もしもう1泊したい</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。チェックアウトを遅らせることは可能です。ただし、その場合、房況によって追加料金が発生いたします。通常、延泊の際には当日の宿泊料金に準ずる費用がかかりますので、ご希望の時間をフロントにてお伺いいたします。もしもう1泊したいというご希望もございましたら、こちらもご対応させていただきますので、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>では、早めのチェックインや遅めのチェックアウトは可能でしょうか? また、チェックアウトの援助はできますか? 料金の発生や支払い方法は…</t>
-  </si>
-  <si>
-    <t>はい、承知いたしました。早めのチェックインや遅めのチェックアウトにつきましては、お部屋の状況によって柔軟に対応させていただきます。もし、チェックアウトの時間を延長していただきたい場合も、お気軽にお声かけください。料金につきましては、お部屋の状況や延長時間によって加料金が発生いたします。支払い方法につきましては、通常、お部屋の請求額をお支払いいただくか、クレジットカードでの決済が可能です。ご不明な点がございましたら、いつでもお申し付けくださいませ。</t>
-  </si>
-  <si>
-    <t>こちらでは休憩サービスを抵抗していますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。こちらでは休憩サービスをご用意しておりませんが、南紡購物中心の下にある駐車場をご利用いただけます。また、YouBikeの利用もご検討ください。何か他に気になることがございましたら、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>1階の連絡通路の暗証番号を教えていただけますか ありがとうございます</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。1階の連絡通路の暗証番号についてですが、お手数ですがフロントにお問い合わせいただけますでしょうか。フロントには暗証番号をお知らせいただく際に必要な手続きをご案内いただけますので、そちらをご利用ください。ありがとうございます。</t>
-  </si>
-  <si>
-    <t>チェックアウト後も 駐車場に車を止めておいてもよろしいでしょうか</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。当館では、南紡購物中心地下駐車場と共有しており、宿泊のお客様は無料でご利用いただけます。チェックアウト後も、停車場に車を停めていただくことは可能です。ただし、延長された場合は、フロントにてお声かけいただくようお願いいたします。</t>
-  </si>
-  <si>
-    <t>すみません ホテルのチャックアウトは何時ですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。台南ロイヤルトラベラーでは、午前11:00までにご退房いただければ問題ございません。もし、ご希望の時間に合わせてご退房をご希望でしたら、フロントにてお気軽にお申し付けください。何かご不明な点がございましたら、いつでもお尋ねください。</t>
-  </si>
-  <si>
-    <t>スクアウトの時間を少し遅らせてもよろしいでしょうか</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。スクアウトの時間をお持ちの時間を少しでも遅らせたいとのことですね。かしこまりました。当日の状況によりますので、フロントにご相談いただければ、可能な範囲で対応させていただきます。何かご不明な点があれば、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>ご視聴ありがとうございました</t>
-  </si>
-  <si>
-    <t>はい、こちらでしたね、ご視聴いただきありがとうございました。台南ロイヤルトラベラーでは、お客様に快適な時間をお過ごしいただけるよう、心より感謝申し上げます。何かご不明な点やご要望がございましたら、いつでもお気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>お子様を連れて宿泊する場合、追加料金はかかりますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。お子様を連れて宿泊される場合ですね、追加料金につきましては、5歳未満のお子様は無料で宿泊できます。5歳以上のお子様につきましては、通常、人数に応じて追加料金が発生いたします。詳細な料金につきましては、お部屋タイプや人数によって変わってきますので、ご希望の宿泊プランや人数をお教えいただければ、正確な金額をお伝えできます。ご不明な点がございましたら、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>タイナンローヤ・ホテルの一番お得な予約方法は何でしょうか?宿泊料金は大体どのくらいになりますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。台南老爺行旅の予約ですね。一番お得な方法は、弊社の公式サイトから直接予約されるのがおすすめです。通常、双人部屋で3,000円台から宿泊料金が設定されていますが、時期や空室状況によって変動いたしますので、ご希望の日程をお知らせいただければ、正確な料金をお調べいたします。ご不明な点がございましたら、お気軽にお申し付けくださいませ。</t>
-  </si>
-  <si>
-    <t>どの加湿タイプに浴槽がついていますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 浴槽は、品味スイートと老爺スイートに設置されています。 どちらも加湿機能付きです。 ご不明な点があれば、フロントにお問い合わせください。</t>
-  </si>
-  <si>
-    <t>お世話になります。次の食博を予約したいのですが、食博の列車を台湾の統一変更、授業所番号で発祥して…</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 卓仔麵店は500メートルほどで、毎日手作りの麺を毎日提供しており、紅焼牛肉麺や榨菜麺が人気です。西羅殿牛肉湯は1000メートルほどで、米其林推薦の老舗店で、新鮮な台湾温体牛肉と自家製辣椒が絶品です。黄家蝦捲は1キロほどで、50年の歴史を持つ定番台南小吃店で、酥脆な蝦捲と魚丸脆肉湯が人気です。</t>
-  </si>
-  <si>
-    <t>実験キレイの食博券はまた使えますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：実験キレイの食博券は、券の規定によりますので、お店に直接お問い合わせください。</t>
-  </si>
-  <si>
-    <t>アン・キリの食博券はどのようにして 食博料金に割引に使いますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。アン・キリの食博券の割引についてですね。食博券の利用方法につきましては、券に記載されている規定をご確認いただくか、直接レストランにご確認ください。詳細については、お店のスタッフにお尋ねになるとのことです。何か他にございましたら、お気軽にお声かけください。</t>
-  </si>
-  <si>
-    <t>カーを予約する際に 豪鉄・台湾高速鉄道のチケットを 一緒に追加で予約するには どうすればいいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。ご予約の際に、台湾高速鉄道のチケットを一緒に予約したいとのことですね。一部のプラットフォームでは提携があり、ご予約の際にご確認ください。もしご不明な点がございましたら、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>予約時に鋼鉄の割引を追加できる購入できますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。予約時に鉄の割引を追加できる購入についてですね。一部のプラットフォームと提携がありまして、ご予約の際にご確認ください。もしご不明な点がございましたら、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>平日のランチ券は休日にも使えますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：卓仔麵店は500メートルほどで、毎日手作りの麺が有名です。紅焼牛肉麺や榨菜麺が人気で、とても美味しいですよ。西羅殿牛肉湯は1000メートルほどで、米其林推薦の老舗店です。新鮮な台湾温体牛肉と自家製辣椒が絶品です。上海華都小吃は1.1キロで、小炒や小籠包が美味しいお店です。もし休日でもランチ券を使いたい場合は、券の規定を確認して、お店に直接お問い合わせください。</t>
-  </si>
-  <si>
-    <t>すみません 私の食事券が事件切れになっていた場合 どうすれば使えますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。お食事券が期限切れとのこと、ご心配ですね。券の表面に記載されている規定をご確認いただき、その旨をレストランのスタッフの方に直接お伝えいただければ、対応していただくことができます。何かご不明な点があれば、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>ご高齢の方への特別な割引はございますか?また、誕生日の際にはどのような割引や特典がございますか?</t>
-  </si>
-  <si>
-    <t>はい、承知いたしました。ご高齢の方には特別な割引がございます。また、お誕生日には様々な割引や特典をご用意しております。詳細につきましては、ぜひ弊店のウェブサイトをご覧いただくか、お電話にてお問い合わせくださいませ。ご希望に沿えるよう、最大限お力尽くさせていただきますので、お気軽にご相談ください。</t>
-  </si>
-  <si>
-    <t>特別な週日の食事代はどのように計算されますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです何かお手伝いできますか？特別な週日の食事代につきましては、通常はウェブサイトで掲載されている情報を参照いただくか、直接レストランにお問い合わせいただくと、詳細な料金体系をお知らせいただけます。ご不明な点がございましたら、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>カンチン・ド・ディーナの営業時間は何時ですか?カンチン・ド・ディーナの営業時間は何時ですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。カンチン・ド・ディーナは、朝の6時30分から10時まで、そして11時30分から14時まで、さらに18時からの夕食まで、営業しております。何か他に気になることや、ご質問などございましたら、お気軽にお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>現状での食事代はどのように計算されますか? 子供は注文したくてもよいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、台南ロイヤルトラベラーのスマートコンシェルジュAIです。何かお困りのことでしょうか。現在の食事代の計算についてですが、お子様に関しては、5歳未満のお子様は注文は不要で、無料でご提供しております。5歳以上のお子様につきましては、大人と同じメニューからお選びいただくことになります。詳細については、レストランにてお尋ねください。</t>
-  </si>
-  <si>
-    <t>食事券と割引はどのように使えば良いですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。食事券と割引券につきましては、券面をご確認いただくか、念のためレストランのカウンターでご質問いただければ、詳細なご案内を承ることが可能です。何かご不明な点があれば、お気軽にお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>すみません 家族と一緒に 消食を食べられない場合 消食をお持ち帰るように包んでいただけますか ありがとうございます</t>
-  </si>
-  <si>
-    <t>はいはい、承知いたしました。もしご家族で召し上がらない消食をご持ち帰りなさりたい場合でしたら、もちろんお包みにしてお届けいたします。事前にお申し付けくださいまして、準備させていただきます。どうぞよろしくお願いいたします。</t>
-  </si>
-  <si>
-    <t>メニューの参考を見せていただけますか? ありがとうございます。</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：水缸豆花（約2.5km）は、独特の水缸装盛方式と純手工製作の豆花で有名です。非基因黃豆と金字塔能量水を使用しており、健康美味です。豆漿豆花、波霸豆花、紅豆豆漿豆花がおすすめです。寶芝林燻茶鵝（約2.7km）は、蜂蜜汁燻茶鵝が絶品です。そして、轉角餐廳 Corner Steak House（約3.2km）は、高品質の碳烤牛排で知られています。メニューの参考は官網と現場でご確認ください。</t>
-  </si>
-  <si>
-    <t>誕生日向けの飲食割引や特典はありますか?</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。誕生日のお祝いに合わせた飲食の割引や特典はございます。詳細については、お近くのレストランにお問い合わせいただくか、レストランの公式ウェブサイトをご確認ください。ご希望のプランやメニューに合わせて、最適なご提案をさせていただきますので、お気軽にお声かけください。</t>
-  </si>
-  <si>
-    <t>ミラの会員になるにはどうすればよいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。ミラの会員になるには、まずオンラインでご登録になります。ご登録いただくと、特別なご優待やポイントが貯まる特典、そしてお誕生日には素敵なご礼物もご用意しておりますので、ぜひオンラインでご登録ください。ご不明な点がございましたら、お気軽にフロントにお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>そちらのホテルの会員になるにはどうすればよいですか?会員はどのような特典を受けられますか?</t>
-  </si>
-  <si>
-    <t>はい、そちらのホテルにご入会をご希望とのことですね。会員ご登録は、弊ホテル公式サイトからオンラインで簡単に行えます。会員様限定の特別なご特典もご用意しております。ポイントが貯まるシステムになっており、誕生月には素敵なご礼物もご用意、また、会員様限定のセール情報なども随時配信いたしますので、ぜひご登録ください。ご登録方法や特典の詳細につきましては、公式サイトをご確認いただくか、お気軽にフロントまでお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>誕生日の方を対象とした宿泊割引はございますか?</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。誕生日の方を対象とした宿泊割引がございます。レストランやウェブサイトで詳細をご確認ください。何かご不明な点がございましたら、お気軽にお尋ねくださいませ。</t>
-  </si>
-  <si>
-    <t>金曜日の方の飲食割引はありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。金曜日ですね、はい、ございます。当店のウェブサイトやお電話で、詳細な内容をお調べいただけます。ご希望に応じて、スタッフが詳しくご案内いたしますので、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>すみません デリバリーを頼むのを手伝っていただけますか? 地元の料理を試してみたいです</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。はい、承知いたしました。デリバリーのご手配ですね。台南の美味しい地元の料理を試してみたいとのこと、素晴らしいですね。南紡購物中心内には、様々な飲食店がありますので、そちらで地元の料理を試してみてはいかがでしょうか。もしご希望の料理があれば、お店の方に直接ご相談されるとスムーズです。何かご不明な点があれば、いつでもお気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>ホテルでデリバリーの食事を受け取ってもらえますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：街役場古蹟餐坊は1.2kmにあり、歴史ある建物で蜜檸柚香燒豬肋排が人気です。咖啡部屋は4.4kmで、義大利肉醬麵がおすすめです。阿財牛肉湯は6.7kmで、新鮮な温体牛肉湯が人気です。</t>
-  </si>
-  <si>
-    <t>そちらへ荷物の発送や受け取りを手伝っていただけますか?</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。荷物の発送や受け取りにつきましては、弊ホテルのお手荷物預かり所へお越しいただければ、喜んで対応させていただきます。お気軽にご利用くださいませ。</t>
-  </si>
-  <si>
-    <t>車丁で渋滞にあったり、駐車スペースが見つからない場合は、どうすればよいですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。もし、お車でご来館の際に、渋滞で駐車場が見つからない場合や、駐車スペースが空いていない場合は、お手数ですが当ホテルのフロントまで直接ご連絡ください。フロントスタッフが、空いている駐車場をご案内したり、臨時でご案内可能な駐車場をご案内したりと、できる限りサポートさせていただきますので、お気軽にお声かけください。</t>
-  </si>
-  <si>
-    <t>ホテルでタクシーを呼んでいただけますか? クレジットカートでの支払いは可能ですか? 可能ですか?</t>
-  </si>
-  <si>
-    <t>はい、もちろんです。タクシーの手配も承りできます。クレジットカードでの支払いは、お店によって対応が異なるようですので、一度お櫃に確認を取って差し上げますよ。</t>
-  </si>
-  <si>
-    <t>ホテルの駐車方法はどのようになっていますか? チェックアウトの際に駐車料金を割引してもらえる時間はありますか?最終的に…</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。ホテルでは、南紡ショッピングセンターの地下駐車場をご利用いただけます。駐車料金につきましては、館内での消費金額が1,000元以上でしたら、1時間まで割引とさせていただいております。最大で6時間まで、同じ車検証に応じて割引可能です。退房後の駐車料金の延長につきましては、駐車場が空いている状況によって、フロントにて柔軟に対応させていただきますので、お気軽にお声かけください。</t>
-  </si>
-  <si>
-    <t>高速鉄道の駅や再来線の駅では無料のシャトルバースはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。高速鉄道の駅や再来線の駅では、無料のシャトルバスはございません。高鉄快捷公車やタクシーをご利用いただくことをお勧めいたします。何か他に気になることやご質問がございましたら、お気軽にお申し付けください。</t>
-  </si>
-  <si>
-    <t>すみません ホテルの近くにコンビニはありますか? またおすすめのグルメや屋台・観光スポットがあれば教えてください ありがとうございます</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：ホテル近くには南紡購物中心内にコンビニエンスストアがあります。周辺には台南市柳營區農會田媽媽（約52.6km）の鮮奶饅頭や包子、新化~東成醬油會館（約7.9km）の翡翠海鮮餅などがおすすめです。また、蓮圃園蓮產品DIY觀光工廠（約3.6km）では、蓮子を使った手作り体験も楽しめます。</t>
-  </si>
-  <si>
-    <t>すみません ここは四海市に近いますか 近くにおすすめの観光スポットやクルメはありますか</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：四海市から約6.8キロの距離に「林家肉圓」があります。こちらは百年以上の歴史を持つ老舗で、Q弾とした肉圓と四神湯が人気です。また、保安路米糕は約3.9キロで、地元で愛される老字號です。さらに、烏山咖啡は2.6キロで、烏山獼猴区の景色を眺めながら、美味しいコーヒーや火鍋を楽しめます。もし他に気になるお店があれば、フロントまでお気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>牢屋の近くで親で食事ができるレストランや親で遊ぶのにおすすめのスポットはありますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します： 卓仔麵店は500メートルほどで、毎日手作りの麺が有名です。紅焼牛肉麺や榨菜麺が人気で、とても美味しいです。西羅殿牛肉湯は1000メートルほどで、米其林推薦の老舗店です。黄家蝦捲は1キロほどで、美味しい蝦捲が評判です。もし他に何かご希望があれば、フロントにお問い合わせください。</t>
-  </si>
-  <si>
-    <t>ペットの宿泊は可能ですか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。申し訳ありませんが、当ホテルではペットの宿泊は承りかねます。ご迷惑をおかけして申し訳ございません。</t>
-  </si>
-  <si>
-    <t>ペットを連れても大丈夫でしょうか?</t>
-  </si>
-  <si>
-    <t>こんにちは、どうぞご用件をお伺いします。申し訳ありませんが、当ホテルではペットの宿泊は承りかねます。しかし、視覚障碍をお持ちのお客様には、盲導犬のご同伴であればお迎えできます。何かご不明な点がございましたら、お気軽にお尋ねください。</t>
-  </si>
-  <si>
-    <t>この天皇会は一般に公開されていますか?</t>
-  </si>
-  <si>
-    <t>こんにちは、いくつか近くのおすすめのお店をご紹介します：皇室茶会は一般公開ではありません。詳細についてはフロントにお問い合わせください。</t>
-  </si>
-  <si>
-    <t>こちらで自転車のレンタルサービスはありますか?</t>
-  </si>
-  <si>
-    <t>はい、こちらでは自転車のレンタルサービスがございます。YouBikeのステーションが近くにありますので、そちらをご利用ください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1363,12 +1363,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1383,9 +1389,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1668,14 +1676,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="180.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1699,10 +1707,10 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1713,10 +1721,10 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1727,10 +1735,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1741,10 +1749,10 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1755,10 +1763,10 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -1769,10 +1777,10 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1783,10 +1791,10 @@
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1797,10 +1805,10 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1811,10 +1819,10 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1825,10 +1833,10 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1839,10 +1847,10 @@
         <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -1853,10 +1861,10 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -1867,10 +1875,10 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1881,10 +1889,10 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -1895,10 +1903,10 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -1909,10 +1917,10 @@
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -1923,10 +1931,10 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1937,10 +1945,10 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
@@ -1951,10 +1959,10 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -1965,38 +1973,32 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -2004,13 +2006,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -2018,13 +2020,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -2032,13 +2034,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -2046,13 +2048,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -2060,13 +2062,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
@@ -2074,13 +2076,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
@@ -2088,13 +2090,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
@@ -2102,13 +2104,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
@@ -2116,13 +2118,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
@@ -2130,13 +2132,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
@@ -2144,13 +2146,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
@@ -2158,13 +2160,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
@@ -2172,13 +2174,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
@@ -2186,13 +2188,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
@@ -2200,13 +2202,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
@@ -2214,13 +2216,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
@@ -2228,13 +2230,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
@@ -2242,13 +2244,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
@@ -2256,13 +2258,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
@@ -2270,13 +2272,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
@@ -2284,13 +2286,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
@@ -2298,13 +2300,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
@@ -2312,13 +2314,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
@@ -2326,13 +2328,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -2340,13 +2342,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
@@ -2354,13 +2356,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
@@ -2368,13 +2370,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
@@ -2382,13 +2384,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
@@ -2396,13 +2398,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
@@ -2410,13 +2412,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
@@ -2424,13 +2426,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
@@ -2438,13 +2440,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C55" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
@@ -2452,13 +2454,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
@@ -2466,13 +2468,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
@@ -2480,13 +2482,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C58" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
@@ -2494,13 +2496,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
@@ -2508,13 +2510,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C60" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
@@ -2522,13 +2524,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
@@ -2536,13 +2538,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
@@ -2550,13 +2552,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
@@ -2564,13 +2566,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C64" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
@@ -2578,13 +2580,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
@@ -2592,13 +2594,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
@@ -2606,13 +2608,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
@@ -2620,13 +2622,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
@@ -2634,13 +2636,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
@@ -2648,13 +2650,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
@@ -2662,13 +2664,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
@@ -2676,13 +2678,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
@@ -2690,13 +2692,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C73" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
@@ -2704,13 +2706,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C74" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
@@ -2718,13 +2720,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
@@ -2732,13 +2734,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C76" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
@@ -2746,13 +2748,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
@@ -2760,13 +2762,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
@@ -2774,13 +2776,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C79" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
@@ -2788,13 +2790,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C80" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
@@ -2802,13 +2804,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C81" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
@@ -2816,13 +2818,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2830,13 +2832,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
@@ -2844,13 +2846,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C84" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
@@ -2858,13 +2860,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
@@ -2872,13 +2874,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
@@ -2886,13 +2888,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -2900,13 +2902,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -2914,13 +2916,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
@@ -2928,13 +2930,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
@@ -2942,13 +2944,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C91" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
@@ -2956,13 +2958,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C92" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
@@ -2970,13 +2972,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C93" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -2984,13 +2986,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -2998,13 +3000,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
@@ -3012,13 +3014,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C96" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -3026,13 +3028,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
@@ -3040,13 +3042,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
@@ -3054,13 +3056,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
@@ -3068,13 +3070,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
@@ -3082,13 +3084,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
@@ -3097,5 +3099,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>